--- a/biology/Botanique/Forêts_nationales_de_Huron-Manistee/Forêts_nationales_de_Huron-Manistee.xlsx
+++ b/biology/Botanique/Forêts_nationales_de_Huron-Manistee/Forêts_nationales_de_Huron-Manistee.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>For%C3%AAts_nationales_de_Huron-Manistee</t>
+          <t>Forêts_nationales_de_Huron-Manistee</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les forêts nationales Huron-Manistee (Huron-Manistee National Forests) sont deux forêts nationales distinctes, la forêt nationale Huron et la forêt nationale Manistee, réunies en 1945 à des fins d’administration et qui comprennent 3 960 km2[1] de terres publiques, y compris 23 km2 de zones humides, s’étendant au nord de la péninsule inférieure du Michigan. Les forêts nationales Huron-Manistee offrent des possibilités de loisirs aux visiteurs, un habitat pour les poissons et la faune et des ressources pour l'industrie locale. Le siège des forêts se trouve à Cadillac, dans le Michigan. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les forêts nationales Huron-Manistee (Huron-Manistee National Forests) sont deux forêts nationales distinctes, la forêt nationale Huron et la forêt nationale Manistee, réunies en 1945 à des fins d’administration et qui comprennent 3 960 km2 de terres publiques, y compris 23 km2 de zones humides, s’étendant au nord de la péninsule inférieure du Michigan. Les forêts nationales Huron-Manistee offrent des possibilités de loisirs aux visiteurs, un habitat pour les poissons et la faune et des ressources pour l'industrie locale. Le siège des forêts se trouve à Cadillac, dans le Michigan. 
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>For%C3%AAts_nationales_de_Huron-Manistee</t>
+          <t>Forêts_nationales_de_Huron-Manistee</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Histoire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La forêt nationale Huron a été créée en 1909 et la forêt nationale Manistee en 1938. En 1945, ils ont été regroupés administrativement, bien qu'ils ne soient pas adjacents. Huron occupe environ 44,8 % de la superficie totale, tandis que Manistee en possède environ 55,2 %. 
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>For%C3%AAts_nationales_de_Huron-Manistee</t>
+          <t>Forêts_nationales_de_Huron-Manistee</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Géographie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Coordonnées
 Huron 44° 34′ N, 83° 59′ O 
